--- a/python/python_vs_c.xlsx
+++ b/python/python_vs_c.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\github\prime\python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523F5A2F-1270-400B-9AFF-752FB96C01B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="10080" yWindow="615" windowWidth="22755" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Python</t>
   </si>
@@ -49,9 +58,6 @@
     <t>Arduino C</t>
   </si>
   <si>
-    <t>from https://github.com/kreier/prime/tree/main/arduino</t>
-  </si>
-  <si>
     <t>range</t>
   </si>
   <si>
@@ -80,53 +86,98 @@
   </si>
   <si>
     <t>M1 3200 MHz</t>
+  </si>
+  <si>
+    <t>i3</t>
+  </si>
+  <si>
+    <t>from:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/kreier/prime/tree/main/arduino </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="7">
-    <font>
-      <sz val="10.0"/>
+  <fonts count="12" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF24292F"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF24292F"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF24292F"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF24292F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -135,88 +186,106 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -406,543 +475,573 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.25"/>
-    <col customWidth="1" min="2" max="2" width="7.38"/>
-    <col customWidth="1" min="3" max="11" width="8.5"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="12" width="8.85546875" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="2"/>
       <c r="D1" s="2">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="E1" s="2">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="F1" s="2">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="G1" s="2">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="H1" s="2">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="I1" s="2">
-        <v>160.0</v>
-      </c>
-      <c r="J1" s="2">
-        <v>240.0</v>
-      </c>
-      <c r="K1" s="2">
-        <v>3200.0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="15">
+        <v>240</v>
+      </c>
+      <c r="K1" s="15">
+        <v>3200</v>
+      </c>
+      <c r="L1" s="15">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6">
-        <v>1000.0</v>
+      <c r="L2" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1000</v>
       </c>
       <c r="B3" s="2">
-        <v>168.0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.694</v>
-      </c>
-      <c r="D3" s="7">
+        <v>168</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="D3" s="5">
         <v>0.182</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>0.11</v>
       </c>
-      <c r="F3" s="7">
-        <v>0.036</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.043</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0.139</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0.027</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0.016</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6">
-        <v>10000.0</v>
+      <c r="F3" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J3" s="17">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K3" s="17">
+        <v>0</v>
+      </c>
+      <c r="L3" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>10000</v>
       </c>
       <c r="B4" s="2">
-        <v>1.229</v>
-      </c>
-      <c r="C4" s="7">
-        <v>13.517</v>
-      </c>
-      <c r="D4" s="7">
+        <v>1.2290000000000001</v>
+      </c>
+      <c r="C4" s="5">
+        <v>13.516999999999999</v>
+      </c>
+      <c r="D4" s="5">
         <v>3.36</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>1.97</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>0.626</v>
       </c>
-      <c r="G4" s="7">
-        <v>0.797</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0.769</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0.487</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0.259</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0.008</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6">
-        <v>100000.0</v>
+      <c r="G4" s="5">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="K4" s="17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>100000</v>
       </c>
       <c r="B5" s="2">
-        <v>9.592</v>
-      </c>
-      <c r="C5" s="7">
+        <v>9.5920000000000005</v>
+      </c>
+      <c r="C5" s="5">
         <v>318.459</v>
       </c>
-      <c r="D5" s="7">
-        <v>71.008</v>
-      </c>
-      <c r="E5" s="7">
-        <v>40.95</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="D5" s="5">
+        <v>71.007999999999996</v>
+      </c>
+      <c r="E5" s="5">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="F5" s="5">
         <v>12.766</v>
       </c>
-      <c r="G5" s="7">
-        <v>17.028</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="G5" s="5">
+        <v>17.027999999999999</v>
+      </c>
+      <c r="H5" s="5">
         <v>10.278</v>
       </c>
-      <c r="I5" s="7">
-        <v>10.037</v>
-      </c>
-      <c r="J5" s="7">
-        <v>5.607</v>
-      </c>
-      <c r="K5" s="7">
+      <c r="I5" s="5">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="J5" s="17">
+        <v>5.6070000000000002</v>
+      </c>
+      <c r="K5" s="17">
         <v>0.111</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6">
-        <v>1000000.0</v>
+      <c r="L5" s="26">
+        <v>0.1089</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1000000</v>
       </c>
       <c r="B6" s="2">
-        <v>78.498</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7">
+        <v>78.498000000000005</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5">
         <v>599.49</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7">
-        <v>294.419</v>
-      </c>
-      <c r="G6" s="7">
-        <v>396.301</v>
-      </c>
-      <c r="H6" s="7">
-        <v>201.873</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="E6" s="6"/>
+      <c r="F6" s="5">
+        <v>294.41899999999998</v>
+      </c>
+      <c r="G6" s="5">
+        <v>396.30099999999999</v>
+      </c>
+      <c r="H6" s="5">
+        <v>201.87299999999999</v>
+      </c>
+      <c r="I6" s="5">
         <v>232.85</v>
       </c>
-      <c r="J6" s="7">
-        <v>130.837</v>
-      </c>
-      <c r="K6" s="7">
-        <v>2.599</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="J6" s="17">
+        <v>130.83699999999999</v>
+      </c>
+      <c r="K6" s="17">
+        <v>2.5990000000000002</v>
+      </c>
+      <c r="L6" s="26">
+        <v>2.4839000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="H10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="I10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="J10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="K10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6">
-        <v>1000.0</v>
-      </c>
-      <c r="B11" s="15">
-        <v>168.0</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="15">
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="12">
+        <v>168</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12">
         <v>0.04</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <v>0.02</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="12">
         <v>0.01</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="12">
         <v>0.03</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="15">
+      <c r="H11" s="12"/>
+      <c r="I11" s="12">
         <v>0.02</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="20">
         <v>0.01</v>
       </c>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6">
-        <v>10000.0</v>
-      </c>
-      <c r="B12" s="17">
-        <v>1229.0</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="15">
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10000</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1229</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12">
         <v>0.9</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <v>0.45</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="12">
         <v>0.24</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="12">
         <v>0.66</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="15">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12">
         <v>0.43</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="20">
         <v>0.22</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="6">
-        <v>100000.0</v>
-      </c>
-      <c r="B13" s="17">
-        <v>9592.0</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="15">
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>100000</v>
+      </c>
+      <c r="B13" s="4">
+        <v>9592</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12">
         <v>21.54</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="12">
         <v>10.76</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="12">
         <v>5.65</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="12">
         <v>15.82</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="15">
+      <c r="H13" s="12"/>
+      <c r="I13" s="12">
         <v>10.16</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="20">
         <v>5.2</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="6">
-        <v>1000000.0</v>
-      </c>
-      <c r="B14" s="17">
-        <v>78498.0</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="15">
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="B14" s="4">
+        <v>78498</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12">
         <v>541.01</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="12">
         <v>270.24</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="12">
         <v>140.47</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="12">
         <v>395.94</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="15">
+      <c r="H14" s="12"/>
+      <c r="I14" s="12">
         <v>252.78</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="20">
         <v>129.44</v>
       </c>
-      <c r="K14" s="2">
-        <v>0.054</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="D17" s="18">
-        <f t="shared" ref="D17:K17" si="1">D3/D11</f>
+      <c r="K14" s="15">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="D17" s="13">
+        <f t="shared" ref="D17:K17" si="0">D3/D11</f>
         <v>4.55</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="13">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="0"/>
+        <v>1.4333333333333333</v>
+      </c>
+      <c r="H17" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="0"/>
+        <v>1.3499999999999999</v>
+      </c>
+      <c r="J17" s="22">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="K17" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="14"/>
+      <c r="D18" s="13">
+        <f t="shared" ref="D18:K18" si="1">D4/D12</f>
+        <v>3.7333333333333329</v>
+      </c>
+      <c r="E18" s="13">
         <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-      <c r="F17" s="18">
+        <v>4.3777777777777773</v>
+      </c>
+      <c r="F18" s="13">
         <f t="shared" si="1"/>
-        <v>3.6</v>
-      </c>
-      <c r="G17" s="18">
+        <v>2.6083333333333334</v>
+      </c>
+      <c r="G18" s="13">
         <f t="shared" si="1"/>
-        <v>1.433333333</v>
-      </c>
-      <c r="H17" s="18" t="str">
+        <v>1.2075757575757575</v>
+      </c>
+      <c r="H18" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I18" s="13">
         <f t="shared" si="1"/>
-        <v>1.35</v>
-      </c>
-      <c r="J17" s="18">
+        <v>1.1325581395348836</v>
+      </c>
+      <c r="J18" s="22">
         <f t="shared" si="1"/>
-        <v>1.6</v>
-      </c>
-      <c r="K17" s="18" t="str">
+        <v>1.1772727272727272</v>
+      </c>
+      <c r="K18" s="22" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18">
-      <c r="C18" s="19"/>
-      <c r="D18" s="18">
-        <f t="shared" ref="D18:K18" si="2">D4/D12</f>
-        <v>3.733333333</v>
-      </c>
-      <c r="E18" s="18">
+    <row r="19" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="14"/>
+      <c r="D19" s="13">
+        <f t="shared" ref="D19:K19" si="2">D5/D13</f>
+        <v>3.296564531104921</v>
+      </c>
+      <c r="E19" s="13">
         <f t="shared" si="2"/>
-        <v>4.377777778</v>
-      </c>
-      <c r="F18" s="18">
+        <v>3.8057620817843869</v>
+      </c>
+      <c r="F19" s="13">
         <f t="shared" si="2"/>
-        <v>2.608333333</v>
-      </c>
-      <c r="G18" s="18">
+        <v>2.2594690265486723</v>
+      </c>
+      <c r="G19" s="13">
         <f t="shared" si="2"/>
-        <v>1.207575758</v>
-      </c>
-      <c r="H18" s="18" t="str">
+        <v>1.0763590391908975</v>
+      </c>
+      <c r="H19" s="13" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I19" s="13">
         <f t="shared" si="2"/>
-        <v>1.13255814</v>
-      </c>
-      <c r="J18" s="18">
+        <v>0.98789370078740169</v>
+      </c>
+      <c r="J19" s="22">
         <f t="shared" si="2"/>
-        <v>1.177272727</v>
-      </c>
-      <c r="K18" s="18" t="str">
+        <v>1.0782692307692308</v>
+      </c>
+      <c r="K19" s="22" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19">
-      <c r="C19" s="19"/>
-      <c r="D19" s="18">
-        <f t="shared" ref="D19:K19" si="3">D5/D13</f>
-        <v>3.296564531</v>
-      </c>
-      <c r="E19" s="18">
+    <row r="20" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="14"/>
+      <c r="D20" s="13">
+        <f t="shared" ref="D20:K20" si="3">D6/D14</f>
+        <v>1.1080941202565573</v>
+      </c>
+      <c r="E20" s="13">
         <f t="shared" si="3"/>
-        <v>3.805762082</v>
-      </c>
-      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
         <f t="shared" si="3"/>
-        <v>2.259469027</v>
-      </c>
-      <c r="G19" s="18">
+        <v>2.0959564319783581</v>
+      </c>
+      <c r="G20" s="13">
         <f t="shared" si="3"/>
-        <v>1.076359039</v>
-      </c>
-      <c r="H19" s="18" t="str">
+        <v>1.000911754306208</v>
+      </c>
+      <c r="H20" s="13" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I20" s="13">
         <f t="shared" si="3"/>
-        <v>0.9878937008</v>
-      </c>
-      <c r="J19" s="18">
+        <v>0.92115673708363</v>
+      </c>
+      <c r="J20" s="22">
         <f t="shared" si="3"/>
-        <v>1.078269231</v>
-      </c>
-      <c r="K19" s="18" t="str">
+        <v>1.0107926452410383</v>
+      </c>
+      <c r="K20" s="22">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" s="19"/>
-      <c r="D20" s="18">
-        <f t="shared" ref="D20:K20" si="4">D6/D14</f>
-        <v>1.10809412</v>
-      </c>
-      <c r="E20" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="18">
-        <f t="shared" si="4"/>
-        <v>2.095956432</v>
-      </c>
-      <c r="G20" s="18">
-        <f t="shared" si="4"/>
-        <v>1.000911754</v>
-      </c>
-      <c r="H20" s="18" t="str">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="18">
-        <f t="shared" si="4"/>
-        <v>0.9211567371</v>
-      </c>
-      <c r="J20" s="18">
-        <f t="shared" si="4"/>
-        <v>1.010792645</v>
-      </c>
-      <c r="K20" s="18">
-        <f t="shared" si="4"/>
-        <v>48.12962963</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" s="10"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
+        <v>48.129629629629633</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="7"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B9:G9"/>
-  </mergeCells>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{A8264245-0C52-4577-91A4-4AD16F0B8B92}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/python/python_vs_c.xlsx
+++ b/python/python_vs_c.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\github\prime\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523F5A2F-1270-400B-9AFF-752FB96C01B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F96DDED-290B-4157-B8D3-6BD2A7512873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="615" windowWidth="22755" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30825" yWindow="6045" windowWidth="22755" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2023" sheetId="2" r:id="rId1"/>
+    <sheet name="2022" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>Python</t>
   </si>
@@ -95,6 +96,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/kreier/prime/tree/main/arduino </t>
+  </si>
+  <si>
+    <t>rp2040 133 MHz</t>
+  </si>
+  <si>
+    <t>CircuitPython 8.2.8</t>
+  </si>
+  <si>
+    <t>i3 4100 MHz</t>
+  </si>
+  <si>
+    <t>code v3.0</t>
   </si>
 </sst>
 </file>
@@ -106,7 +119,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -180,6 +193,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -260,12 +280,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -481,20 +501,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53583A92-6E91-471D-AE71-015DF5BF3E3A}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="9" width="8.85546875" customWidth="1"/>
     <col min="10" max="12" width="8.85546875" style="18" customWidth="1"/>
@@ -533,7 +553,7 @@
         <v>3200</v>
       </c>
       <c r="L1" s="15">
-        <v>3600</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -576,120 +596,636 @@
       <c r="A3" s="4">
         <v>1000</v>
       </c>
-      <c r="B3" s="2">
-        <v>168</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.182</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="F3" s="5">
-        <v>3.5999999999999997E-2</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="5">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="I3" s="5">
-        <v>2.7E-2</v>
-      </c>
-      <c r="J3" s="17">
-        <v>1.6E-2</v>
-      </c>
-      <c r="K3" s="17">
-        <v>0</v>
-      </c>
-      <c r="L3" s="25">
-        <v>0</v>
+        <v>3.7789999999999997E-2</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="24">
+        <v>3.7389999999999998E-4</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>10000</v>
       </c>
-      <c r="B4" s="2">
-        <v>1.2290000000000001</v>
-      </c>
-      <c r="C4" s="5">
-        <v>13.516999999999999</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3.36</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1.97</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.626</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="5">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="J4" s="17">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="K4" s="17">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="L4" s="25">
-        <v>0</v>
+        <v>0.94677699999999998</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="24">
+        <v>5.2383000000000004E-3</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>100000</v>
       </c>
-      <c r="B5" s="2">
-        <v>9.5920000000000005</v>
-      </c>
-      <c r="C5" s="5">
-        <v>318.459</v>
-      </c>
-      <c r="D5" s="5">
-        <v>71.007999999999996</v>
-      </c>
-      <c r="E5" s="5">
-        <v>40.950000000000003</v>
-      </c>
-      <c r="F5" s="5">
-        <v>12.766</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="5">
-        <v>17.027999999999999</v>
-      </c>
-      <c r="H5" s="5">
-        <v>10.278</v>
-      </c>
-      <c r="I5" s="5">
-        <v>10.037000000000001</v>
-      </c>
-      <c r="J5" s="17">
-        <v>5.6070000000000002</v>
-      </c>
-      <c r="K5" s="17">
-        <v>0.111</v>
-      </c>
-      <c r="L5" s="26">
-        <v>0.1089</v>
+        <v>12.3901</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="25">
+        <v>9.1182083999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1000000</v>
       </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
+        <v>384.29599999999999</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="25">
+        <v>1.4816269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="25">
+        <v>57.317262640000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="G8" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B12" s="12">
+        <v>168</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>10000</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1229</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>100000</v>
+      </c>
+      <c r="B14" s="4">
+        <v>9592</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="18">
+        <v>6.0790000000000002E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="B15" s="4">
+        <v>78498</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="18">
+        <v>0.125029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="18">
+        <v>3.0749499999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18" s="13" t="e">
+        <f>D3/D12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="13" t="e">
+        <f>E3/E12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18" s="13" t="e">
+        <f>F3/F12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18" s="13" t="e">
+        <f>G3/G12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="13" t="e">
+        <f>H3/H12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="13" t="e">
+        <f>I3/I12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="22" t="e">
+        <f>J3/J12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="22" t="e">
+        <f>K3/K12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="22" t="e">
+        <f t="shared" ref="L18" si="0">L3/L12</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13" t="e">
+        <f>D4/D13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="13" t="e">
+        <f>E4/E13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="13" t="e">
+        <f>F4/F13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="13" t="e">
+        <f>G4/G13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="13" t="e">
+        <f>H4/H13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="13" t="e">
+        <f>I4/I13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="22" t="e">
+        <f>J4/J13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="22" t="e">
+        <f>K4/K13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="22" t="e">
+        <f t="shared" ref="L19" si="1">L4/L13</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="e">
+        <f>D5/D14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="13" t="e">
+        <f>E5/E14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="13" t="e">
+        <f>F5/F14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" s="13" t="e">
+        <f>G5/G14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="13" t="e">
+        <f>H5/H14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="13" t="e">
+        <f>I5/I14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" s="22" t="e">
+        <f>J5/J14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K20" s="22" t="e">
+        <f>K5/K14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="22">
+        <f t="shared" ref="L20" si="2">L5/L14</f>
+        <v>14.999520315841421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13" t="e">
+        <f>D6/D15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" s="13" t="e">
+        <f>E6/E15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" s="13" t="e">
+        <f>F6/F15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" s="13" t="e">
+        <f>G6/G15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" s="13" t="e">
+        <f>H6/H15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="13" t="e">
+        <f>I6/I15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="22" t="e">
+        <f>J6/J15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="22" t="e">
+        <f>K6/K15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="22">
+        <f t="shared" ref="L21:L22" si="3">L6/L15</f>
+        <v>11.850265938302314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22">
+        <f t="shared" si="3"/>
+        <v>18.640063298590224</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{D8C2202D-C06C-4E48-8367-22B62D35A86B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="12" width="8.85546875" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2">
+        <v>80</v>
+      </c>
+      <c r="E1" s="2">
+        <v>160</v>
+      </c>
+      <c r="F1" s="2">
+        <v>240</v>
+      </c>
+      <c r="G1" s="2">
+        <v>125</v>
+      </c>
+      <c r="H1" s="2">
+        <v>240</v>
+      </c>
+      <c r="I1" s="2">
+        <v>160</v>
+      </c>
+      <c r="J1" s="15">
+        <v>240</v>
+      </c>
+      <c r="K1" s="15">
+        <v>3200</v>
+      </c>
+      <c r="L1" s="15">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="2">
+        <v>168</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.182</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J3" s="17">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K3" s="17">
+        <v>0</v>
+      </c>
+      <c r="L3" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>10000</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.2290000000000001</v>
+      </c>
+      <c r="C4" s="5">
+        <v>13.516999999999999</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3.36</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.97</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.626</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="K4" s="17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L4" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>100000</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9.5920000000000005</v>
+      </c>
+      <c r="C5" s="5">
+        <v>318.459</v>
+      </c>
+      <c r="D5" s="5">
+        <v>71.007999999999996</v>
+      </c>
+      <c r="E5" s="5">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="F5" s="5">
+        <v>12.766</v>
+      </c>
+      <c r="G5" s="5">
+        <v>17.027999999999999</v>
+      </c>
+      <c r="H5" s="5">
+        <v>10.278</v>
+      </c>
+      <c r="I5" s="5">
+        <v>10.037000000000001</v>
+      </c>
+      <c r="J5" s="17">
+        <v>5.6070000000000002</v>
+      </c>
+      <c r="K5" s="17">
+        <v>0.111</v>
+      </c>
+      <c r="L5" s="25">
+        <v>0.1089</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1000000</v>
+      </c>
       <c r="B6" s="2">
         <v>78.498000000000005</v>
       </c>
@@ -716,7 +1252,7 @@
       <c r="K6" s="17">
         <v>2.5990000000000002</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="25">
         <v>2.4839000000000002</v>
       </c>
     </row>
@@ -727,17 +1263,13 @@
       <c r="B9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
@@ -755,7 +1287,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>18</v>

--- a/python/python_vs_c.xlsx
+++ b/python/python_vs_c.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\github\prime\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F96DDED-290B-4157-B8D3-6BD2A7512873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5930FFA-5EF5-4235-8122-C63EF5DF986D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30825" yWindow="6045" windowWidth="22755" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33255" yWindow="2175" windowWidth="15705" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>Python</t>
   </si>
@@ -108,16 +108,29 @@
   </si>
   <si>
     <t>code v3.0</t>
+  </si>
+  <si>
+    <t>prime to</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="172" formatCode="0.00000"/>
+    <numFmt numFmtId="173" formatCode="0.000000"/>
+    <numFmt numFmtId="175" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -201,12 +214,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -222,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -286,6 +305,25 @@
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -505,10 +543,569 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="9" width="8.85546875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>240</v>
+      </c>
+      <c r="D1" s="2">
+        <v>125</v>
+      </c>
+      <c r="E1" s="2">
+        <v>240</v>
+      </c>
+      <c r="F1" s="2">
+        <v>160</v>
+      </c>
+      <c r="G1" s="15">
+        <v>240</v>
+      </c>
+      <c r="H1" s="15">
+        <v>3200</v>
+      </c>
+      <c r="I1" s="15">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="12">
+        <v>168</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.106934</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3.60107E-2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.109985</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="17">
+        <v>1.49994E-2</v>
+      </c>
+      <c r="H3" s="30">
+        <v>1.7432999999999999E-4</v>
+      </c>
+      <c r="I3" s="30">
+        <v>2.8400000000000002E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>10000</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1229</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.2850000000000001</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.58398399999999995</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.515015</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="17">
+        <v>0.235016</v>
+      </c>
+      <c r="H4" s="17">
+        <v>2.1991249950000001E-3</v>
+      </c>
+      <c r="I4" s="24">
+        <v>3.8470000000000002E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>100000</v>
+      </c>
+      <c r="B5" s="4">
+        <v>9592</v>
+      </c>
+      <c r="C5" s="5">
+        <v>54.3979</v>
+      </c>
+      <c r="D5" s="5">
+        <v>11.536</v>
+      </c>
+      <c r="E5" s="5">
+        <v>8.5470000000000006</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="17">
+        <v>4.6789990000000001</v>
+      </c>
+      <c r="H5" s="17">
+        <v>3.568429E-2</v>
+      </c>
+      <c r="I5" s="25">
+        <v>6.7795999999999995E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="B6" s="4">
+        <v>78498</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1356.84</v>
+      </c>
+      <c r="D6" s="5">
+        <v>261.43799999999999</v>
+      </c>
+      <c r="E6" s="5">
+        <v>169.59100000000001</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="17">
+        <v>106.679</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.96153670000000002</v>
+      </c>
+      <c r="I6" s="25">
+        <v>1.4816269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17">
+        <v>24.750426000000001</v>
+      </c>
+      <c r="I7" s="25">
+        <v>57.317262640000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="34">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B12" s="12">
+        <v>168</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="29">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="H12" s="27">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="I12" s="28">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="5">
+        <v>599.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>10000</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1229</v>
+      </c>
+      <c r="C13" s="29">
+        <v>0.24</v>
+      </c>
+      <c r="D13" s="29">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="29">
+        <v>0.43</v>
+      </c>
+      <c r="G13" s="29">
+        <v>0.22</v>
+      </c>
+      <c r="H13" s="27">
+        <v>2.33E-4</v>
+      </c>
+      <c r="I13" s="28">
+        <v>2.9700000000000001E-4</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="29">
+        <v>8.6038000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>100000</v>
+      </c>
+      <c r="B14" s="4">
+        <v>9592</v>
+      </c>
+      <c r="C14" s="29">
+        <v>5.67</v>
+      </c>
+      <c r="D14" s="29">
+        <v>3.29</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="29">
+        <v>10.16</v>
+      </c>
+      <c r="G14" s="29">
+        <v>5.22</v>
+      </c>
+      <c r="H14" s="27">
+        <v>6.7099999999999998E-3</v>
+      </c>
+      <c r="I14" s="28">
+        <v>6.0790000000000002E-3</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="35">
+        <f>L12/L13</f>
+        <v>6967.7351867779353</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="B15" s="4">
+        <v>78498</v>
+      </c>
+      <c r="C15" s="29">
+        <v>141.02000000000001</v>
+      </c>
+      <c r="D15" s="29">
+        <v>82.03</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="29">
+        <v>252.73</v>
+      </c>
+      <c r="G15" s="29">
+        <v>129.94999999999999</v>
+      </c>
+      <c r="H15" s="27">
+        <v>8.6038000000000003E-2</v>
+      </c>
+      <c r="I15" s="28">
+        <v>0.125029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="27">
+        <v>1.1831149999999999</v>
+      </c>
+      <c r="I16" s="28">
+        <v>3.0749499999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18" s="13">
+        <f t="shared" ref="C18:H21" si="0">C3/C12</f>
+        <v>10.6934</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" si="0"/>
+        <v>3.60107</v>
+      </c>
+      <c r="E18" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" si="0"/>
+        <v>1.4999399999999998</v>
+      </c>
+      <c r="H18" s="22">
+        <f t="shared" si="0"/>
+        <v>5.4478125000000004</v>
+      </c>
+      <c r="I18" s="22">
+        <f t="shared" ref="I18" si="1">I3/I12</f>
+        <v>14.947368421052632</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19" s="13">
+        <f t="shared" si="0"/>
+        <v>9.5208333333333339</v>
+      </c>
+      <c r="D19" s="13">
+        <f t="shared" si="0"/>
+        <v>4.1713142857142849</v>
+      </c>
+      <c r="E19" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="0"/>
+        <v>1.0682545454545456</v>
+      </c>
+      <c r="H19" s="22">
+        <f t="shared" si="0"/>
+        <v>9.438304699570816</v>
+      </c>
+      <c r="I19" s="22">
+        <f t="shared" ref="I19" si="2">I4/I13</f>
+        <v>12.952861952861953</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20" s="13">
+        <f t="shared" si="0"/>
+        <v>9.5939858906525579</v>
+      </c>
+      <c r="D20" s="13">
+        <f t="shared" si="0"/>
+        <v>3.506382978723404</v>
+      </c>
+      <c r="E20" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="0"/>
+        <v>0.89635996168582377</v>
+      </c>
+      <c r="H20" s="22">
+        <f t="shared" si="0"/>
+        <v>5.3180760059612524</v>
+      </c>
+      <c r="I20" s="22">
+        <f t="shared" ref="I20" si="3">I5/I14</f>
+        <v>11.152492186214836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21" s="13">
+        <f t="shared" si="0"/>
+        <v>9.6216139554673088</v>
+      </c>
+      <c r="D21" s="13">
+        <f t="shared" si="0"/>
+        <v>3.1871022796537849</v>
+      </c>
+      <c r="E21" s="13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" si="0"/>
+        <v>0.82092343208926521</v>
+      </c>
+      <c r="H21" s="22">
+        <f t="shared" si="0"/>
+        <v>11.17572119296125</v>
+      </c>
+      <c r="I21" s="22">
+        <f t="shared" ref="H21:I22" si="4">I6/I15</f>
+        <v>11.850265938302314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22">
+        <f t="shared" si="4"/>
+        <v>20.919712792078542</v>
+      </c>
+      <c r="I22" s="22">
+        <f t="shared" si="4"/>
+        <v>18.640063298590224</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{D8C2202D-C06C-4E48-8367-22B62D35A86B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -553,522 +1150,6 @@
         <v>3200</v>
       </c>
       <c r="L1" s="15">
-        <v>4100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1000</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5">
-        <v>3.7789999999999997E-2</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="24">
-        <v>3.7389999999999998E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>10000</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5">
-        <v>0.94677699999999998</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="24">
-        <v>5.2383000000000004E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>100000</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5">
-        <v>12.3901</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="25">
-        <v>9.1182083999999997E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>1000000</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5">
-        <v>384.29599999999999</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="25">
-        <v>1.4816269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>10000000</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="25">
-        <v>57.317262640000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="G8" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>1000</v>
-      </c>
-      <c r="B12" s="12">
-        <v>168</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>10000</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1229</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>100000</v>
-      </c>
-      <c r="B14" s="4">
-        <v>9592</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="18">
-        <v>6.0790000000000002E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>1000000</v>
-      </c>
-      <c r="B15" s="4">
-        <v>78498</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="18">
-        <v>0.125029</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L16" s="18">
-        <v>3.0749499999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18" s="13" t="e">
-        <f>D3/D12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="13" t="e">
-        <f>E3/E12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="13" t="e">
-        <f>F3/F12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="13" t="e">
-        <f>G3/G12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="13" t="e">
-        <f>H3/H12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="13" t="e">
-        <f>I3/I12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" s="22" t="e">
-        <f>J3/J12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" s="22" t="e">
-        <f>K3/K12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="22" t="e">
-        <f t="shared" ref="L18" si="0">L3/L12</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="13" t="e">
-        <f>D4/D13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="13" t="e">
-        <f>E4/E13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="13" t="e">
-        <f>F4/F13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="13" t="e">
-        <f>G4/G13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="13" t="e">
-        <f>H4/H13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="13" t="e">
-        <f>I4/I13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="22" t="e">
-        <f>J4/J13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" s="22" t="e">
-        <f>K4/K13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" s="22" t="e">
-        <f t="shared" ref="L19" si="1">L4/L13</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13" t="e">
-        <f>D5/D14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="13" t="e">
-        <f>E5/E14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="13" t="e">
-        <f>F5/F14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="13" t="e">
-        <f>G5/G14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="13" t="e">
-        <f>H5/H14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="13" t="e">
-        <f>I5/I14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="22" t="e">
-        <f>J5/J14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="22" t="e">
-        <f>K5/K14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="22">
-        <f t="shared" ref="L20" si="2">L5/L14</f>
-        <v>14.999520315841421</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="13" t="e">
-        <f>D6/D15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="13" t="e">
-        <f>E6/E15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="13" t="e">
-        <f>F6/F15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="13" t="e">
-        <f>G6/G15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="13" t="e">
-        <f>H6/H15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="13" t="e">
-        <f>I6/I15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="22" t="e">
-        <f>J6/J15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" s="22" t="e">
-        <f>K6/K15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="22">
-        <f t="shared" ref="L21:L22" si="3">L6/L15</f>
-        <v>11.850265938302314</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22">
-        <f t="shared" si="3"/>
-        <v>18.640063298590224</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" xr:uid="{D8C2202D-C06C-4E48-8367-22B62D35A86B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:L21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="9" width="8.85546875" customWidth="1"/>
-    <col min="10" max="12" width="8.85546875" style="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2">
-        <v>80</v>
-      </c>
-      <c r="E1" s="2">
-        <v>160</v>
-      </c>
-      <c r="F1" s="2">
-        <v>240</v>
-      </c>
-      <c r="G1" s="2">
-        <v>125</v>
-      </c>
-      <c r="H1" s="2">
-        <v>240</v>
-      </c>
-      <c r="I1" s="2">
-        <v>160</v>
-      </c>
-      <c r="J1" s="15">
-        <v>240</v>
-      </c>
-      <c r="K1" s="15">
-        <v>3200</v>
-      </c>
-      <c r="L1" s="15">
         <v>3600</v>
       </c>
     </row>

--- a/python/python_vs_c.xlsx
+++ b/python/python_vs_c.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\github\prime\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5930FFA-5EF5-4235-8122-C63EF5DF986D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E937436F-6112-4FDA-9ADC-0783CBD311EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33255" yWindow="2175" windowWidth="15705" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="1365" windowWidth="15705" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>Python</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>use Feather ESP32-S2 TFT</t>
+  </si>
+  <si>
+    <t>added later</t>
   </si>
 </sst>
 </file>
@@ -127,10 +133,10 @@
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.00000"/>
-    <numFmt numFmtId="173" formatCode="0.000000"/>
-    <numFmt numFmtId="175" formatCode="0.000"/>
-    <numFmt numFmtId="176" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -214,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +230,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -305,10 +317,10 @@
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -324,6 +336,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -543,10 +556,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -810,7 +823,9 @@
       <c r="D12" s="29">
         <v>0.01</v>
       </c>
-      <c r="E12" s="31"/>
+      <c r="E12" s="29">
+        <v>0.01</v>
+      </c>
       <c r="F12" s="29">
         <v>0.02</v>
       </c>
@@ -843,7 +858,9 @@
       <c r="D13" s="29">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E13" s="31"/>
+      <c r="E13" s="29">
+        <v>0.3</v>
+      </c>
       <c r="F13" s="29">
         <v>0.43</v>
       </c>
@@ -876,7 +893,9 @@
       <c r="D14" s="29">
         <v>3.29</v>
       </c>
-      <c r="E14" s="31"/>
+      <c r="E14" s="29">
+        <v>7.2</v>
+      </c>
       <c r="F14" s="29">
         <v>10.16</v>
       </c>
@@ -913,7 +932,9 @@
       <c r="D15" s="29">
         <v>82.03</v>
       </c>
-      <c r="E15" s="31"/>
+      <c r="E15" s="29">
+        <v>179.18</v>
+      </c>
       <c r="F15" s="29">
         <v>252.73</v>
       </c>
@@ -954,9 +975,9 @@
         <f t="shared" si="0"/>
         <v>3.60107</v>
       </c>
-      <c r="E18" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="E18" s="13">
+        <f t="shared" si="0"/>
+        <v>10.9985</v>
       </c>
       <c r="F18" s="13">
         <f t="shared" si="0"/>
@@ -986,9 +1007,9 @@
         <f t="shared" si="0"/>
         <v>4.1713142857142849</v>
       </c>
-      <c r="E19" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="E19" s="13">
+        <f t="shared" si="0"/>
+        <v>1.7167166666666667</v>
       </c>
       <c r="F19" s="13">
         <f t="shared" si="0"/>
@@ -1018,9 +1039,9 @@
         <f t="shared" si="0"/>
         <v>3.506382978723404</v>
       </c>
-      <c r="E20" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="E20" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1870833333333335</v>
       </c>
       <c r="F20" s="13">
         <f t="shared" si="0"/>
@@ -1050,9 +1071,9 @@
         <f t="shared" si="0"/>
         <v>3.1871022796537849</v>
       </c>
-      <c r="E21" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="E21" s="13">
+        <f t="shared" si="0"/>
+        <v>0.94648398258734234</v>
       </c>
       <c r="F21" s="13">
         <f t="shared" si="0"/>
@@ -1086,6 +1107,11 @@
       <c r="I22" s="22">
         <f t="shared" si="4"/>
         <v>18.640063298590224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1105,7 +1131,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1403,7 +1429,9 @@
       <c r="G11" s="12">
         <v>0.03</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="36">
+        <v>0.01</v>
+      </c>
       <c r="I11" s="12">
         <v>0.02</v>
       </c>
@@ -1432,7 +1460,9 @@
       <c r="G12" s="12">
         <v>0.66</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="36">
+        <v>0.3</v>
+      </c>
       <c r="I12" s="12">
         <v>0.43</v>
       </c>
@@ -1461,7 +1491,9 @@
       <c r="G13" s="12">
         <v>15.82</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="36">
+        <v>7.2</v>
+      </c>
       <c r="I13" s="12">
         <v>10.16</v>
       </c>
@@ -1490,7 +1522,9 @@
       <c r="G14" s="12">
         <v>395.94</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="36">
+        <v>179.18</v>
+      </c>
       <c r="I14" s="12">
         <v>252.78</v>
       </c>
@@ -1499,6 +1533,11 @@
       </c>
       <c r="K14" s="15">
         <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="3:11" ht="15" x14ac:dyDescent="0.25">
@@ -1518,9 +1557,9 @@
         <f t="shared" si="0"/>
         <v>1.4333333333333333</v>
       </c>
-      <c r="H17" s="13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H17" s="13">
+        <f t="shared" si="0"/>
+        <v>13.9</v>
       </c>
       <c r="I17" s="13">
         <f t="shared" si="0"/>
@@ -1553,9 +1592,9 @@
         <f t="shared" si="1"/>
         <v>1.2075757575757575</v>
       </c>
-      <c r="H18" s="13" t="e">
+      <c r="H18" s="13">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.5633333333333335</v>
       </c>
       <c r="I18" s="13">
         <f t="shared" si="1"/>
@@ -1588,9 +1627,9 @@
         <f t="shared" si="2"/>
         <v>1.0763590391908975</v>
       </c>
-      <c r="H19" s="13" t="e">
+      <c r="H19" s="13">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.4275</v>
       </c>
       <c r="I19" s="13">
         <f t="shared" si="2"/>
@@ -1623,9 +1662,9 @@
         <f t="shared" si="3"/>
         <v>1.000911754306208</v>
       </c>
-      <c r="H20" s="13" t="e">
+      <c r="H20" s="13">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.126649179595937</v>
       </c>
       <c r="I20" s="13">
         <f t="shared" si="3"/>

--- a/python/python_vs_c.xlsx
+++ b/python/python_vs_c.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\github\prime\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\archive\github\prime\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E937436F-6112-4FDA-9ADC-0783CBD311EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B7336D-1601-4F18-9699-7EEC08ABA2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="1365" windowWidth="15705" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10155" yWindow="450" windowWidth="20355" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="2" r:id="rId1"/>
-    <sheet name="2022" sheetId="1" r:id="rId2"/>
+    <sheet name="2025" sheetId="4" r:id="rId1"/>
+    <sheet name="2023" sheetId="2" r:id="rId2"/>
+    <sheet name="2022" sheetId="1" r:id="rId3"/>
+    <sheet name="1G steps" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>Python</t>
   </si>
@@ -123,13 +136,94 @@
   </si>
   <si>
     <t>added later</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>µs</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Rust</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+  </si>
+  <si>
+    <t>Arduino Mega</t>
+  </si>
+  <si>
+    <t>ESP8266</t>
+  </si>
+  <si>
+    <t>ESP32-S3</t>
+  </si>
+  <si>
+    <t>Tegra X1</t>
+  </si>
+  <si>
+    <t>i7-13700T</t>
+  </si>
+  <si>
+    <t>3060 Ti</t>
+  </si>
+  <si>
+    <t>Cores</t>
+  </si>
+  <si>
+    <t>10 million is 10 Mbyte to store array for Sieve of Eratosthenes</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>Python v5.0</t>
+  </si>
+  <si>
+    <t>Python v6.0</t>
+  </si>
+  <si>
+    <t>Python v3.0</t>
+  </si>
+  <si>
+    <t>Python v7.0</t>
+  </si>
+  <si>
+    <t>Time to calculate until 10 million, or 10E7. There should be 664579 (78498).</t>
+  </si>
+  <si>
+    <t>Cortex-A57</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
@@ -137,6 +231,7 @@
     <numFmt numFmtId="168" formatCode="0.000000"/>
     <numFmt numFmtId="169" formatCode="0.000"/>
     <numFmt numFmtId="170" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="171" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -253,7 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -337,10 +432,23 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -353,6 +461,1385 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time in minutes to</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> reach </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>number</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1G steps'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>number</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1G steps'!$A$2:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="77"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1G steps'!$B$2:$B$78</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="77"/>
+                <c:pt idx="0">
+                  <c:v>38795599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65887441</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89253613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110351231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130245607</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>149358581</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>168413261</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>186536503</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>203522663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>220082831</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>236069777</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>251654119</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>267017797</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>282073811</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>296885969</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>311341127</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>325584617</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>339820219</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>353960539</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>367699939</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>381184709</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>394396721</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>407457499</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>420361787</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>433425143</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>446280253</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>458615357</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>470816893</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>483010687</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>494854081</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>506747831</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>518542489</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>530574619</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>542433673</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>554162461</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>565656601</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>576967519</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>588269593</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>599238883</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>610372337</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>621598189</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>632936869</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>644152633</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>655348849</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>666294143</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>677448209</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>688602979</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>699699901</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>711040907</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>722240249</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>733223861</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>744157277</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>754970609</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>765725887</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>776234441</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>786691223</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>797239243</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>807846071</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>818598827</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>829314509</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>839955427</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>850608433</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>861280403</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>871943249</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>882582677</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>893146277</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>903633053</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>914077561</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>924414769</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>934780643</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>945049309</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>955305187</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>965441039</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>975470861</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>985513547</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>995506439</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C103-4198-9733-64F23F6ADEF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1235532368"/>
+        <c:axId val="1235532784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1235532368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="76"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1235532784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1235532784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1235532368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E45675C-72AB-4824-9C32-AAF3700F974B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -552,17 +2039,313 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A09B470-E5EE-4F67-8F1C-0F32CF315461}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="10" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="26">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>133</v>
+      </c>
+      <c r="E4">
+        <v>240</v>
+      </c>
+      <c r="F4">
+        <v>240</v>
+      </c>
+      <c r="G4">
+        <v>1400</v>
+      </c>
+      <c r="H4">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40">
+        <v>211.92686699999999</v>
+      </c>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40">
+        <v>2608.9299999999998</v>
+      </c>
+      <c r="E7" s="40">
+        <v>11678.1</v>
+      </c>
+      <c r="F7" s="40">
+        <v>1105.28</v>
+      </c>
+      <c r="G7" s="40">
+        <v>87.853026999999997</v>
+      </c>
+      <c r="H7" s="40">
+        <v>8.8449740000000006</v>
+      </c>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40">
+        <v>23.519976</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="41">
+        <v>12524.163</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41">
+        <v>121.370583</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41">
+        <v>2.7363400000000002</v>
+      </c>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="38">
+        <v>8000</v>
+      </c>
+      <c r="C15" s="38">
+        <v>80000</v>
+      </c>
+      <c r="D15" s="38">
+        <v>260000</v>
+      </c>
+      <c r="E15" s="38">
+        <v>160000</v>
+      </c>
+      <c r="F15" s="38">
+        <v>512000</v>
+      </c>
+      <c r="G15" s="38">
+        <v>4000000000</v>
+      </c>
+      <c r="H15" s="38">
+        <v>64000000000</v>
+      </c>
+      <c r="I15" s="38">
+        <v>4000000000</v>
+      </c>
+      <c r="J15" s="38">
+        <v>8000000000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="38">
+        <v>10000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53583A92-6E91-471D-AE71-015DF5BF3E3A}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
@@ -1123,7 +2906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1134,7 +2917,7 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
@@ -1696,4 +3479,676 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D8AC45-A3B9-440B-ABFA-1178D294B93D}">
+  <dimension ref="A1:H78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="38">
+        <v>38795599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="38">
+        <v>65887441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="38">
+        <v>89253613</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="38">
+        <v>110351231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="38">
+        <v>130245607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="38">
+        <v>149358581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="38">
+        <v>168413261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="38">
+        <v>186536503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="38">
+        <v>203522663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="38">
+        <v>220082831</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="38">
+        <v>236069777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="38">
+        <v>251654119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="38">
+        <v>267017797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="38">
+        <v>282073811</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="38">
+        <v>296885969</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="38">
+        <v>311341127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="38">
+        <v>325584617</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="38">
+        <v>339820219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="38">
+        <v>353960539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="38">
+        <v>367699939</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="38">
+        <v>381184709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="38">
+        <v>394396721</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="38">
+        <v>407457499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="38">
+        <v>420361787</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="38">
+        <v>433425143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="38">
+        <v>446280253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="38">
+        <v>458615357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="38">
+        <v>470816893</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="38">
+        <v>483010687</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="38">
+        <v>494854081</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="38">
+        <v>506747831</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="38">
+        <v>518542489</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="38">
+        <v>530574619</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="38">
+        <v>542433673</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="38">
+        <v>554162461</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="38">
+        <v>565656601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="38">
+        <v>576967519</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="38">
+        <v>588269593</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="38">
+        <v>599238883</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="38">
+        <v>610372337</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="38">
+        <v>621598189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="38">
+        <v>632936869</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="38">
+        <v>644152633</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="38">
+        <v>655348849</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="38">
+        <v>666294143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="38">
+        <v>677448209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="38">
+        <v>688602979</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="38">
+        <v>699699901</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="38">
+        <v>711040907</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="38">
+        <v>722240249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="38">
+        <v>733223861</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="38">
+        <v>744157277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="38">
+        <v>754970609</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="38">
+        <v>765725887</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="38">
+        <v>776234441</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="38">
+        <v>786691223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="38">
+        <v>797239243</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="38">
+        <v>807846071</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="38">
+        <v>818598827</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="38">
+        <v>829314509</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="38">
+        <v>839955427</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="38">
+        <v>850608433</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="38">
+        <v>861280403</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="38">
+        <v>871943249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="38">
+        <v>882582677</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="38">
+        <v>893146277</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="38">
+        <v>903633053</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="38">
+        <v>914077561</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="38">
+        <v>924414769</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="38">
+        <v>934780643</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="38">
+        <v>945049309</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="38">
+        <v>955305187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="38">
+        <v>965441039</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="38">
+        <v>975470861</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="38">
+        <v>985513547</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="38">
+        <v>995506439</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>76.45</v>
+      </c>
+      <c r="B78" s="38">
+        <v>1000000000</v>
+      </c>
+      <c r="E78">
+        <v>4587073525.6999998</v>
+      </c>
+      <c r="F78">
+        <f>E78/1000000</f>
+        <v>4587.0735256999997</v>
+      </c>
+      <c r="G78">
+        <f>F78/60</f>
+        <v>76.451225428333331</v>
+      </c>
+      <c r="H78">
+        <f>G78/60</f>
+        <v>1.2741870904722221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/python/python_vs_c.xlsx
+++ b/python/python_vs_c.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\archive\github\prime\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B7336D-1601-4F18-9699-7EEC08ABA2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B085CE9-4763-4ABF-8900-6275D950E63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="450" windowWidth="20355" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11385" yWindow="435" windowWidth="20355" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
   <si>
     <t>Python</t>
   </si>
@@ -217,6 +217,21 @@
   </si>
   <si>
     <t>Cortex-A57</t>
+  </si>
+  <si>
+    <t>C multi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C vs. Python: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parallel Python: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parallel C: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C vs. Python p: </t>
   </si>
 </sst>
 </file>
@@ -233,7 +248,7 @@
     <numFmt numFmtId="170" formatCode="#,##0.00000"/>
     <numFmt numFmtId="171" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -314,6 +329,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F2328"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F2328"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -348,7 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -445,6 +474,17 @@
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2040,10 +2080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A09B470-E5EE-4F67-8F1C-0F32CF315461}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2153,7 +2193,9 @@
       <c r="G6" s="40">
         <v>211.92686699999999</v>
       </c>
-      <c r="H6" s="40"/>
+      <c r="H6" s="40">
+        <v>24.219182</v>
+      </c>
       <c r="I6" s="40"/>
       <c r="J6" s="40"/>
     </row>
@@ -2193,7 +2235,9 @@
       <c r="G8" s="40">
         <v>23.519976</v>
       </c>
-      <c r="H8" s="40"/>
+      <c r="H8" s="40">
+        <v>1.9046783</v>
+      </c>
       <c r="I8" s="40"/>
       <c r="J8" s="40"/>
     </row>
@@ -2227,27 +2271,33 @@
       <c r="G10" s="41">
         <v>2.7363400000000002</v>
       </c>
-      <c r="H10" s="41"/>
+      <c r="H10" s="41">
+        <v>0.409831</v>
+      </c>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
       <c r="D11" s="41"/>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
+      <c r="G11" s="41">
+        <v>0.76509899999999997</v>
+      </c>
+      <c r="H11" s="41">
+        <v>0.160327</v>
+      </c>
       <c r="I11" s="41"/>
       <c r="J11" s="41"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -2261,7 +2311,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -2275,7 +2325,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -2289,48 +2339,247 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B16" s="38">
         <v>8000</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C16" s="38">
         <v>80000</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D16" s="38">
         <v>260000</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E16" s="38">
         <v>160000</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F16" s="38">
         <v>512000</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G16" s="38">
         <v>4000000000</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H16" s="38">
         <v>64000000000</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I16" s="38">
         <v>4000000000</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J16" s="38">
         <v>8000000000</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="26" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="38">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="38">
         <v>10000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F20" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="46">
+        <f>G7/G8</f>
+        <v>3.7352515580798209</v>
+      </c>
+      <c r="H20" s="46">
+        <f>H7/H8</f>
+        <v>4.6438151786577295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="F21" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="46">
+        <f>G10/G11</f>
+        <v>3.5764521976894499</v>
+      </c>
+      <c r="H21" s="46">
+        <f>H10/H11</f>
+        <v>2.5562194764450155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="F22" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="46">
+        <f>G7/G10</f>
+        <v>32.106034703289794</v>
+      </c>
+      <c r="H22" s="46">
+        <f>H7/H10</f>
+        <v>21.582003313560957</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="F23" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="46">
+        <f>G8/G11</f>
+        <v>30.741088408166789</v>
+      </c>
+      <c r="H23" s="46">
+        <f>H8/H11</f>
+        <v>11.879959707348108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="42"/>
+      <c r="D24" s="42"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="42"/>
+      <c r="D25" s="42"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="42"/>
+      <c r="D26" s="42"/>
+    </row>
+    <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="42"/>
+      <c r="B27" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="42"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="42"/>
+      <c r="B28" s="44">
+        <v>10</v>
+      </c>
+      <c r="C28" s="44">
+        <v>4</v>
+      </c>
+      <c r="D28" s="42"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="42"/>
+      <c r="B29" s="44">
+        <v>100</v>
+      </c>
+      <c r="C29" s="44">
+        <v>25</v>
+      </c>
+      <c r="D29" s="42"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="42"/>
+      <c r="B30" s="45">
+        <v>1000</v>
+      </c>
+      <c r="C30" s="44">
+        <v>168</v>
+      </c>
+      <c r="D30" s="42"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="42"/>
+      <c r="B31" s="45">
+        <v>10000</v>
+      </c>
+      <c r="C31" s="45">
+        <v>1229</v>
+      </c>
+      <c r="D31" s="42"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="42"/>
+      <c r="B32" s="45">
+        <v>100000</v>
+      </c>
+      <c r="C32" s="45">
+        <v>9592</v>
+      </c>
+      <c r="D32" s="42"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="42"/>
+      <c r="B33" s="45">
+        <v>1000000</v>
+      </c>
+      <c r="C33" s="45">
+        <v>78498</v>
+      </c>
+      <c r="D33" s="42"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="42"/>
+      <c r="B34" s="45">
+        <v>10000000</v>
+      </c>
+      <c r="C34" s="45">
+        <v>664579</v>
+      </c>
+      <c r="D34" s="42"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="45">
+        <v>100000000</v>
+      </c>
+      <c r="C35" s="45">
+        <v>5761455</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="45">
+        <v>1000000000</v>
+      </c>
+      <c r="C36" s="45">
+        <v>50847534</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="45">
+        <v>2147483647</v>
+      </c>
+      <c r="C37" s="45">
+        <v>105097564</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="45">
+        <v>4294967295</v>
+      </c>
+      <c r="C38" s="45">
+        <v>203280221</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
